--- a/Learn English/Book1.xlsx
+++ b/Learn English/Book1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Learn English\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6768"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10512"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="384">
   <si>
     <t>Từ vựng</t>
   </si>
@@ -2041,6 +2041,785 @@
         <family val="2"/>
       </rPr>
       <t> in advance.</t>
+    </r>
+  </si>
+  <si>
+    <t>afraid</t>
+  </si>
+  <si>
+    <t>/əˈfreɪd/</t>
+  </si>
+  <si>
+    <t>sợ hãi</t>
+  </si>
+  <si>
+    <t>Cô ấy sợ nhện.</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>/ˈæf.tər/</t>
+  </si>
+  <si>
+    <t>sau</t>
+  </si>
+  <si>
+    <t>Chúng tôi sẽ gặp nhau sau bữa trưa.</t>
+  </si>
+  <si>
+    <t>afternoon</t>
+  </si>
+  <si>
+    <t>/ˌæf.tərˈnuːn/</t>
+  </si>
+  <si>
+    <t>buổi chiều</t>
+  </si>
+  <si>
+    <t>Hãy đi mua sắm chiều nay đi.</t>
+  </si>
+  <si>
+    <t>afterwards</t>
+  </si>
+  <si>
+    <t>/ˈæf.tə.wədz/</t>
+  </si>
+  <si>
+    <t>sau đó</t>
+  </si>
+  <si>
+    <t>Chúng tôi xem phim và sau đó uống trà.</t>
+  </si>
+  <si>
+    <t>again</t>
+  </si>
+  <si>
+    <t>/əˈɡen/</t>
+  </si>
+  <si>
+    <t>lại, một lần nữa</t>
+  </si>
+  <si>
+    <t>Hãy lặp lại điều đó một lần nữa.</t>
+  </si>
+  <si>
+    <t>against</t>
+  </si>
+  <si>
+    <t>/əˈɡenst/</t>
+  </si>
+  <si>
+    <t>chống lại, dựa vào</t>
+  </si>
+  <si>
+    <t>Con mèo dựa vào tường.</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>/eɪdʒ/</t>
+  </si>
+  <si>
+    <t>tuổi tác</t>
+  </si>
+  <si>
+    <t>Bạn bao nhiêu tuổi?</t>
+  </si>
+  <si>
+    <t>già đi, ủ</t>
+  </si>
+  <si>
+    <t>Rượu đã ủ rất ngon.</t>
+  </si>
+  <si>
+    <t>aged</t>
+  </si>
+  <si>
+    <t>/eɪdʒd/</t>
+  </si>
+  <si>
+    <t>lớn tuổi, được ủ</t>
+  </si>
+  <si>
+    <t>Phô mai này được ủ trong 2 năm.</t>
+  </si>
+  <si>
+    <t>agency</t>
+  </si>
+  <si>
+    <t>/ˈeɪ.dʒən.si/</t>
+  </si>
+  <si>
+    <t>cơ quan, đại lý</t>
+  </si>
+  <si>
+    <t>Cô ấy làm việc tại một đại lý du lịch.</t>
+  </si>
+  <si>
+    <t>agenda</t>
+  </si>
+  <si>
+    <t>/əˈdʒen.də/</t>
+  </si>
+  <si>
+    <t>chương trình nghị sự</t>
+  </si>
+  <si>
+    <t>Chương trình họp đã sẵn sàng.</t>
+  </si>
+  <si>
+    <t>agent</t>
+  </si>
+  <si>
+    <t>/ˈeɪ.dʒənt/</t>
+  </si>
+  <si>
+    <t>đại lý, tác nhân</t>
+  </si>
+  <si>
+    <t>Đại lý đã giúp chúng tôi mua nhà.</t>
+  </si>
+  <si>
+    <t>aggressive</t>
+  </si>
+  <si>
+    <t>/əˈɡres.ɪv/</t>
+  </si>
+  <si>
+    <t>hung hăng</t>
+  </si>
+  <si>
+    <t>Anh ấy có thái độ hung hăng.</t>
+  </si>
+  <si>
+    <t>ago</t>
+  </si>
+  <si>
+    <t>/əˈɡəʊ/</t>
+  </si>
+  <si>
+    <t>trước đây</t>
+  </si>
+  <si>
+    <t>Họ đã rời đi 10 phút trước.</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>/əˈɡriː/</t>
+  </si>
+  <si>
+    <t>đồng ý</t>
+  </si>
+  <si>
+    <t>Tôi đồng ý với ý kiến của bạn.</t>
+  </si>
+  <si>
+    <t>agreement</t>
+  </si>
+  <si>
+    <t>/əˈɡriː.mənt/</t>
+  </si>
+  <si>
+    <t>thỏa thuận</t>
+  </si>
+  <si>
+    <t>Chúng tôi đã ký một thỏa thuận kinh doanh.</t>
+  </si>
+  <si>
+    <t>ah</t>
+  </si>
+  <si>
+    <t>exclam.</t>
+  </si>
+  <si>
+    <t>/ɑː/</t>
+  </si>
+  <si>
+    <t>à, ôi (biểu cảm)</t>
+  </si>
+  <si>
+    <t>À, tôi hiểu ý bạn rồi!</t>
+  </si>
+  <si>
+    <t>ahead</t>
+  </si>
+  <si>
+    <t>/əˈhed/</t>
+  </si>
+  <si>
+    <t>phía trước</t>
+  </si>
+  <si>
+    <t>Đi thẳng về phía trước để đến công viên.</t>
+  </si>
+  <si>
+    <t>aid</t>
+  </si>
+  <si>
+    <t>/eɪd/</t>
+  </si>
+  <si>
+    <t>sự hỗ trợ</t>
+  </si>
+  <si>
+    <t>Đất nước nhận được viện trợ y tế.</t>
+  </si>
+  <si>
+    <t>hỗ trợ</t>
+  </si>
+  <si>
+    <t>Công cụ này hỗ trợ học ngôn ngữ.</t>
+  </si>
+  <si>
+    <r>
+      <t>She is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>afraid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> of spiders.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>We will meet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>after</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> lunch.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Let’s go shopping this </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>afternoon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>We watched a movie and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>afterwards</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> had tea.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Please repeat that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>again</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The cat leaned </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>against</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> the wall.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>What is your </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>age</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The wine </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> well.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This cheese is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aged</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> for 2 years.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>She works at a travel </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The meeting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agenda</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is ready.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> helped us buy the house.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>He has an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aggressive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> attitude.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>They left 10 minutes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ago</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agree</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> with your opinion.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>We signed a business </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>agreement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ah</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, I see what you mean!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Go straight </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ahead</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> to find the park.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The country received medical </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The tool </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aids</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> in learning languages.</t>
     </r>
   </si>
 </sst>
@@ -2048,7 +2827,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2084,6 +2863,15 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2111,7 +2899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2127,11 +2915,104 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF404040"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF404040"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF404040"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF404040"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF404040"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -2192,96 +3073,6 @@
       </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF404040"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF404040"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF404040"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF404040"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF404040"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2296,15 +3087,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F59" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
-  <autoFilter ref="A1:F59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F79" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A1:F79"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Từ vựng" dataDxfId="0"/>
-    <tableColumn id="2" name="Loại từ" dataDxfId="1"/>
-    <tableColumn id="3" name="Phiên âm (IPA)" dataDxfId="7"/>
-    <tableColumn id="4" name="Nghĩa tiếng Việt" dataDxfId="6"/>
-    <tableColumn id="5" name="Ví dụ minh họa" dataDxfId="5"/>
-    <tableColumn id="6" name="Dịch ví dụ" dataDxfId="4"/>
+    <tableColumn id="1" name="Từ vựng" dataDxfId="5"/>
+    <tableColumn id="2" name="Loại từ" dataDxfId="4"/>
+    <tableColumn id="3" name="Phiên âm (IPA)" dataDxfId="3"/>
+    <tableColumn id="4" name="Nghĩa tiếng Việt" dataDxfId="2"/>
+    <tableColumn id="5" name="Ví dụ minh họa" dataDxfId="1"/>
+    <tableColumn id="6" name="Dịch ví dụ" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2573,10 +3364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2590,7 +3381,7 @@
     <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2610,7 +3401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -2630,7 +3421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="102" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -2650,7 +3441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="183.6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
@@ -2670,7 +3461,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="122.4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -2690,7 +3481,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="142.80000000000001" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -2710,7 +3501,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
@@ -2730,7 +3521,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="142.80000000000001" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -2750,7 +3541,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="244.8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="102" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
@@ -2770,7 +3561,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
@@ -2790,7 +3581,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="102" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
@@ -2810,7 +3601,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="204" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -2830,7 +3621,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -2850,7 +3641,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>55</v>
       </c>
@@ -2870,7 +3661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="122.4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>59</v>
       </c>
@@ -2890,7 +3681,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>63</v>
       </c>
@@ -2910,7 +3701,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="142.80000000000001" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="102" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>67</v>
       </c>
@@ -2930,7 +3721,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="183.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="102" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>67</v>
       </c>
@@ -2950,7 +3741,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="183.6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="102" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>73</v>
       </c>
@@ -2970,7 +3761,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>73</v>
       </c>
@@ -2990,7 +3781,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="183.6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="102" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>79</v>
       </c>
@@ -3010,7 +3801,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="142.80000000000001" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>83</v>
       </c>
@@ -3030,7 +3821,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="102" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>87</v>
       </c>
@@ -3050,7 +3841,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="183.6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>91</v>
       </c>
@@ -3070,7 +3861,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="142.80000000000001" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>95</v>
       </c>
@@ -3090,7 +3881,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="204" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="102" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>98</v>
       </c>
@@ -3110,7 +3901,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="142.80000000000001" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>102</v>
       </c>
@@ -3130,7 +3921,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>106</v>
       </c>
@@ -3150,7 +3941,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="142.80000000000001" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>110</v>
       </c>
@@ -3170,7 +3961,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>114</v>
       </c>
@@ -3190,7 +3981,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="142.80000000000001" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>118</v>
       </c>
@@ -3213,7 +4004,7 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:6" ht="224.4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>122</v>
       </c>
@@ -3233,7 +4024,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="183.6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="102" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>127</v>
       </c>
@@ -3253,7 +4044,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="224.4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="122.4" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>127</v>
       </c>
@@ -3273,7 +4064,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>133</v>
       </c>
@@ -3293,7 +4084,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>137</v>
       </c>
@@ -3313,7 +4104,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="224.4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="122.4" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>141</v>
       </c>
@@ -3333,7 +4124,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="183.6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="102" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>145</v>
       </c>
@@ -3353,7 +4144,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>149</v>
       </c>
@@ -3373,7 +4164,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="204" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="122.4" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>153</v>
       </c>
@@ -3393,7 +4184,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>157</v>
       </c>
@@ -3413,7 +4204,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="102" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>161</v>
       </c>
@@ -3433,7 +4224,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="102" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>165</v>
       </c>
@@ -3453,7 +4244,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="142.80000000000001" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>169</v>
       </c>
@@ -3473,7 +4264,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="102" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>173</v>
       </c>
@@ -3493,7 +4284,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="102" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>177</v>
       </c>
@@ -3513,7 +4304,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="102" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>182</v>
       </c>
@@ -3533,7 +4324,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="142.80000000000001" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>186</v>
       </c>
@@ -3553,7 +4344,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="142.80000000000001" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A50" s="5" t="s">
         <v>190</v>
       </c>
@@ -3573,7 +4364,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="122.4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
       <c r="A51" s="5" t="s">
         <v>194</v>
       </c>
@@ -3593,7 +4384,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="122.4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.35">
       <c r="A52" s="5" t="s">
         <v>198</v>
       </c>
@@ -3613,7 +4404,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="102" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
       <c r="A53" s="5" t="s">
         <v>202</v>
       </c>
@@ -3633,7 +4424,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="122.4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
       <c r="A54" s="5" t="s">
         <v>206</v>
       </c>
@@ -3653,7 +4444,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A55" s="5" t="s">
         <v>210</v>
       </c>
@@ -3673,7 +4464,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A56" s="5" t="s">
         <v>214</v>
       </c>
@@ -3693,7 +4484,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A57" s="5" t="s">
         <v>218</v>
       </c>
@@ -3713,7 +4504,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="183.6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A58" s="5" t="s">
         <v>222</v>
       </c>
@@ -3733,7 +4524,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="163.19999999999999" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
       <c r="A59" s="5" t="s">
         <v>226</v>
       </c>
@@ -3751,6 +4542,406 @@
       </c>
       <c r="F59" s="4" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A60" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A63" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
+      <c r="A64" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
+      <c r="A65" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A66" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A68" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A69" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
+      <c r="A70" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
+      <c r="A71" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A75" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.35">
+      <c r="A76" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F76" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
+      <c r="A77" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
+      <c r="A79" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/Learn English/Book1.xlsx
+++ b/Learn English/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="498">
   <si>
     <t>Từ vựng</t>
   </si>
@@ -2820,6 +2820,874 @@
         <scheme val="minor"/>
       </rPr>
       <t> in learning languages.</t>
+    </r>
+  </si>
+  <si>
+    <t>aim</t>
+  </si>
+  <si>
+    <t>v. (B1)</t>
+  </si>
+  <si>
+    <t>/eɪm/</t>
+  </si>
+  <si>
+    <t>nhắm mục tiêu</t>
+  </si>
+  <si>
+    <t>Cô ấy nhắm mục tiêu trở thành bác sĩ.</t>
+  </si>
+  <si>
+    <t>n. (B1)</t>
+  </si>
+  <si>
+    <t>mục đích</t>
+  </si>
+  <si>
+    <t>Mục đích chính của anh ấy là cải thiện kỹ năng.</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>n. (A1)</t>
+  </si>
+  <si>
+    <t>/eər/</t>
+  </si>
+  <si>
+    <t>không khí</t>
+  </si>
+  <si>
+    <t>Không khí trong lành tốt cho sức khỏe.</t>
+  </si>
+  <si>
+    <t>aircraft</t>
+  </si>
+  <si>
+    <t>n. (B2)</t>
+  </si>
+  <si>
+    <t>/ˈeə.krɑːft/</t>
+  </si>
+  <si>
+    <t>máy bay</t>
+  </si>
+  <si>
+    <t>Máy bay đã hạ cánh an toàn.</t>
+  </si>
+  <si>
+    <t>airline</t>
+  </si>
+  <si>
+    <t>n. (A2)</t>
+  </si>
+  <si>
+    <t>/ˈeə.laɪn/</t>
+  </si>
+  <si>
+    <t>hãng hàng không</t>
+  </si>
+  <si>
+    <t>Tôi đặt vé với một hãng hàng không giá rẻ.</t>
+  </si>
+  <si>
+    <t>airport</t>
+  </si>
+  <si>
+    <t>/ˈeə.pɔːt/</t>
+  </si>
+  <si>
+    <t>sân bay</t>
+  </si>
+  <si>
+    <t>Chúng tôi đến sân bay sớm.</t>
+  </si>
+  <si>
+    <t>alarm</t>
+  </si>
+  <si>
+    <t>/əˈlɑːm/</t>
+  </si>
+  <si>
+    <t>chuông báo động</t>
+  </si>
+  <si>
+    <t>Chuông báo cháy kêu đột ngột.</t>
+  </si>
+  <si>
+    <t>v. (B2)</t>
+  </si>
+  <si>
+    <t>làm hoảng sợ</t>
+  </si>
+  <si>
+    <t>Tiếng ồn lớn làm con chó hoảng sợ.</t>
+  </si>
+  <si>
+    <t>album</t>
+  </si>
+  <si>
+    <t>/ˈæl.bəm/</t>
+  </si>
+  <si>
+    <t>album (nhạc, ảnh)</t>
+  </si>
+  <si>
+    <t>Cô ấy phát hành album nhạc đầu tiên.</t>
+  </si>
+  <si>
+    <t>alcohol</t>
+  </si>
+  <si>
+    <t>/ˈæl.kə.hɒl/</t>
+  </si>
+  <si>
+    <t>rượu, chất cồn</t>
+  </si>
+  <si>
+    <t>Uống nhiều rượu có hại cho sức khỏe.</t>
+  </si>
+  <si>
+    <t>alcoholic</t>
+  </si>
+  <si>
+    <t>adj. (B1)</t>
+  </si>
+  <si>
+    <t>/ˌæl.kəˈhɒl.ɪk/</t>
+  </si>
+  <si>
+    <t>có cồn</t>
+  </si>
+  <si>
+    <t>Thức uống này có cồn.</t>
+  </si>
+  <si>
+    <t>alive</t>
+  </si>
+  <si>
+    <t>adj. (A2)</t>
+  </si>
+  <si>
+    <t>/əˈlaɪv/</t>
+  </si>
+  <si>
+    <t>còn sống</t>
+  </si>
+  <si>
+    <t>Con cá vẫn còn sống.</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>det./pron. (A1)</t>
+  </si>
+  <si>
+    <t>/ɔːl/</t>
+  </si>
+  <si>
+    <t>tất cả</t>
+  </si>
+  <si>
+    <t>Tất cả học sinh phải tham dự buổi họp.</t>
+  </si>
+  <si>
+    <t>adv. (A2)</t>
+  </si>
+  <si>
+    <t>hoàn toàn</t>
+  </si>
+  <si>
+    <t>Cô ấy hoàn toàn một mình trong phòng.</t>
+  </si>
+  <si>
+    <t>all right</t>
+  </si>
+  <si>
+    <t>adj./adv. (A2)</t>
+  </si>
+  <si>
+    <t>/ˌɔːl ˈraɪt/</t>
+  </si>
+  <si>
+    <t>ổn, được</t>
+  </si>
+  <si>
+    <t>Bạn có ổn không?</t>
+  </si>
+  <si>
+    <t>exclam. (A2)</t>
+  </si>
+  <si>
+    <t>được rồi!</t>
+  </si>
+  <si>
+    <t>Được rồi, bắt đầu thôi!</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>v. (A2)</t>
+  </si>
+  <si>
+    <t>/əˈlaʊ/</t>
+  </si>
+  <si>
+    <t>cho phép</t>
+  </si>
+  <si>
+    <t>Hút thuốc không được phép ở đây.</t>
+  </si>
+  <si>
+    <t>almost</t>
+  </si>
+  <si>
+    <t>/ˈɔːl.məʊst/</t>
+  </si>
+  <si>
+    <t>gần như</t>
+  </si>
+  <si>
+    <t>Tôi gần như đã hoàn thành bài tập.</t>
+  </si>
+  <si>
+    <t>alone</t>
+  </si>
+  <si>
+    <t>/əˈləʊn/</t>
+  </si>
+  <si>
+    <t>một mình</t>
+  </si>
+  <si>
+    <t>Cô ấy thích làm việc một mình.</t>
+  </si>
+  <si>
+    <t>along</t>
+  </si>
+  <si>
+    <t>prep. (A2)</t>
+  </si>
+  <si>
+    <t>/əˈlɒŋ/</t>
+  </si>
+  <si>
+    <t>dọc theo</t>
+  </si>
+  <si>
+    <t>Đi dọc theo con sông để đến công viên.</t>
+  </si>
+  <si>
+    <t>cùng, đi theo</t>
+  </si>
+  <si>
+    <t>Cô ấy mang theo con chó của mình.</t>
+  </si>
+  <si>
+    <r>
+      <t>She </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aims</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> to become a doctor.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>His main </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aim</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is to improve his skills.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Fresh </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>air</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is good for health.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aircraft</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> landed safely.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I booked tickets with a budget </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>airline</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>We arrived at the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>airport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> early.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The fire </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alarm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> went off suddenly.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The loud noise </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alarmed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> the dog.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>She released her first music </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>album</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Drinking too much </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alcohol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> is harmful.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This drink is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alcoholic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>The fish is still </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>All</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> students must attend the meeting.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>She was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> alone in the room.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Are you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>All right</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, let’s start!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Smoking is not </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>allowed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> here.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>I’ve </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>almost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> finished my homework.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>She prefers to work </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>alone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Walk </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>along</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> the river to reach the park.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>She brought her dog </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>along</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>already</t>
+  </si>
+  <si>
+    <t>/ɔːlˈred.i/</t>
+  </si>
+  <si>
+    <t>đã</t>
+  </si>
+  <si>
+    <t>Anh ấy đã rời văn phòng.</t>
+  </si>
+  <si>
+    <r>
+      <t>He has </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>already</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="163"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> left the office.</t>
     </r>
   </si>
 </sst>
@@ -2887,7 +3755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2895,34 +3763,168 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="11">
     <dxf>
       <font>
         <b val="0"/>
@@ -2939,7 +3941,23 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2957,7 +3975,25 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2975,7 +4011,27 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -2993,7 +4049,27 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3011,31 +4087,27 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color rgb="FF404040"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3053,7 +4125,99 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color rgb="FF404040"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -3071,7 +4235,7 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3087,15 +4251,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F79" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F79"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:F100" totalsRowShown="0" headerRowDxfId="0" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:F100"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Từ vựng" dataDxfId="5"/>
-    <tableColumn id="2" name="Loại từ" dataDxfId="4"/>
-    <tableColumn id="3" name="Phiên âm (IPA)" dataDxfId="3"/>
-    <tableColumn id="4" name="Nghĩa tiếng Việt" dataDxfId="2"/>
-    <tableColumn id="5" name="Ví dụ minh họa" dataDxfId="1"/>
-    <tableColumn id="6" name="Dịch ví dụ" dataDxfId="0"/>
+    <tableColumn id="1" name="Từ vựng" dataDxfId="6"/>
+    <tableColumn id="2" name="Loại từ" dataDxfId="5"/>
+    <tableColumn id="3" name="Phiên âm (IPA)" dataDxfId="4"/>
+    <tableColumn id="4" name="Nghĩa tiếng Việt" dataDxfId="3"/>
+    <tableColumn id="5" name="Ví dụ minh họa" dataDxfId="2"/>
+    <tableColumn id="6" name="Dịch ví dụ" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3364,1584 +4528,2016 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection sqref="A1:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="21" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="6" width="50.77734375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="102" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="102" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="11" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="11" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="102" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="11" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="102" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="102" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="102" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="102" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="102" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="11" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="11" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+    <row r="32" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D32" s="3" t="s">
         <v>125</v>
       </c>
+      <c r="E32" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>129</v>
+      </c>
       <c r="E33" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="102" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="122.4" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" s="4" t="s">
+      <c r="C39" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="4" t="s">
+      <c r="C40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="4" t="s">
+      <c r="C50" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="122.4" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B38" s="4" t="s">
+      <c r="C56" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="102" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B39" s="4" t="s">
+      <c r="C66" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B40" s="4" t="s">
+      <c r="C73" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="122.4" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="B41" s="4" t="s">
+      <c r="C74" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="102" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E53" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="F59" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
-        <v>321</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="81.599999999999994" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="D78" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="61.2" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="D79" s="7" t="s">
+      <c r="D78" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E78" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F78" s="12" t="s">
         <v>363</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" s="2" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="13" t="s">
+        <v>493</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
